--- a/biology/Botanique/Psychotria_lanceifolia/Psychotria_lanceifolia.xlsx
+++ b/biology/Botanique/Psychotria_lanceifolia/Psychotria_lanceifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psychotria lanceifolia K.Schum. est une espèce d'arbrisseaux du genre Psychotria dans la famille des Rubiaceae, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se trouve généralement dans la forêt à feuilles persistantes de 0 à 1 600 m d'altitude, souvent à proximité de cours d'eau[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se trouve généralement dans la forêt à feuilles persistantes de 0 à 1 600 m d'altitude, souvent à proximité de cours d'eau.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La description du taxon a longtemps reposé sur les échantillons collectés à Bipindi, dans la région du Sud, par Georg August Zenker en 1896[3]. D'autres spécimens ont été signalés à la fin des années 1960 près de Kribi et dans les monts Bakossi. Comme on ne lui connaissait alors que ces trois localisations, l'espèce a été évaluée comme vulnérable (VU D2) selon les critères de l'UICN[4].
-Dans l'intervalle d'autres sites ont été découverts, notamment au sud-ouest, à Mundemba, dans le parc national de Korup, à Bakundu, au lac Barombi Mbo, à Mamfé ; au Sud, dans la zone de Bipindi-Kribi-Ebolowa, à Memel II, Efoulan ; également dans l'Est à Somalomo et dans la réserve du Dja. Son statut pourrait donc être réévalué en VU B, voire A[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La description du taxon a longtemps reposé sur les échantillons collectés à Bipindi, dans la région du Sud, par Georg August Zenker en 1896. D'autres spécimens ont été signalés à la fin des années 1960 près de Kribi et dans les monts Bakossi. Comme on ne lui connaissait alors que ces trois localisations, l'espèce a été évaluée comme vulnérable (VU D2) selon les critères de l'UICN.
+Dans l'intervalle d'autres sites ont été découverts, notamment au sud-ouest, à Mundemba, dans le parc national de Korup, à Bakundu, au lac Barombi Mbo, à Mamfé ; au Sud, dans la zone de Bipindi-Kribi-Ebolowa, à Memel II, Efoulan ; également dans l'Est à Somalomo et dans la réserve du Dja. Son statut pourrait donc être réévalué en VU B, voire A.
 </t>
         </is>
       </c>
